--- a/assets/spreadsheets/prevention-desserage-vis-sur-plastique.xlsx
+++ b/assets/spreadsheets/prevention-desserage-vis-sur-plastique.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t xml:space="preserve">DIMENSIONNEMENT SYSTÈME PREVENTION DESSERRAGE VIS PAR "TASSEMENT DES PLASTIQUES"</t>
   </si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">Aire surface d'appui (S)</t>
   </si>
   <si>
-    <t xml:space="preserve">A AJOUTER :</t>
+    <t xml:space="preserve">Par Simon Rebière, le 03/09/2025</t>
   </si>
   <si>
     <t xml:space="preserve">TAILLES STANDARDS PASSAGES DE VIS ET RONDELLES</t>
@@ -364,7 +364,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,14 +445,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,13 +481,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -525,14 +532,8 @@
         <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -561,62 +562,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -648,52 +593,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,19 +646,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,11 +666,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -733,11 +678,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,7 +702,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,23 +710,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,83 +738,43 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,7 +867,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -973,7 +878,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -982,7 +887,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1011,9 +916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1023,7 +928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="442080" y="1623240"/>
-          <a:ext cx="139680" cy="4572360"/>
+          <a:ext cx="139320" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst>
@@ -1035,6 +940,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1061,9 +967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1073,7 +979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="240840" y="1242360"/>
-          <a:ext cx="139680" cy="5900760"/>
+          <a:ext cx="139320" cy="5900400"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst>
@@ -1085,6 +991,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1111,9 +1018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1123,7 +1030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="244080" y="8095320"/>
-          <a:ext cx="139680" cy="2294640"/>
+          <a:ext cx="139320" cy="2294280"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst>
@@ -1135,6 +1042,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1161,9 +1069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1172,8 +1080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5449320" y="1071720"/>
-          <a:ext cx="139680" cy="7610760"/>
+          <a:off x="5450040" y="1071720"/>
+          <a:ext cx="139320" cy="7610400"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst>
@@ -1185,6 +1093,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1211,9 +1120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175680</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1223,7 +1132,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36360" y="858240"/>
-          <a:ext cx="139680" cy="9525960"/>
+          <a:ext cx="139320" cy="9525600"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst>
@@ -1235,6 +1144,7 @@
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1261,9 +1171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1272,10 +1182,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10085760" y="2331720"/>
-          <a:ext cx="7999560" cy="4686120"/>
-          <a:chOff x="10085760" y="2331720"/>
-          <a:chExt cx="7999560" cy="4686120"/>
+          <a:off x="10087200" y="2331720"/>
+          <a:ext cx="8000280" cy="4685760"/>
+          <a:chOff x="10087200" y="2331720"/>
+          <a:chExt cx="8000280" cy="4685760"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -1285,8 +1195,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16053120" y="3665520"/>
-            <a:ext cx="2032200" cy="352080"/>
+            <a:off x="16055280" y="3665520"/>
+            <a:ext cx="2032200" cy="351720"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1314,9 +1224,6 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>RONDELLE BELLEVILLE</a:t>
@@ -1334,10 +1241,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="10085760" y="2331720"/>
-            <a:ext cx="7959600" cy="4686120"/>
-            <a:chOff x="10085760" y="2331720"/>
-            <a:chExt cx="7959600" cy="4686120"/>
+            <a:off x="10087200" y="2331720"/>
+            <a:ext cx="7960320" cy="4685760"/>
+            <a:chOff x="10087200" y="2331720"/>
+            <a:chExt cx="7960320" cy="4685760"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
@@ -1347,8 +1254,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16053120" y="4132080"/>
-              <a:ext cx="1992240" cy="352080"/>
+              <a:off x="16055280" y="4132080"/>
+              <a:ext cx="1992240" cy="351720"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1376,9 +1283,6 @@
               </a:pPr>
               <a:r>
                 <a:rPr b="1" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
                   <a:latin typeface="Calibri"/>
                 </a:rPr>
                 <a:t>RONDELLE PLATE</a:t>
@@ -1396,10 +1300,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="10085760" y="2331720"/>
-              <a:ext cx="7959600" cy="4686120"/>
-              <a:chOff x="10085760" y="2331720"/>
-              <a:chExt cx="7959600" cy="4686120"/>
+              <a:off x="10087200" y="2331720"/>
+              <a:ext cx="7960320" cy="4685760"/>
+              <a:chOff x="10087200" y="2331720"/>
+              <a:chExt cx="7960320" cy="4685760"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp>
@@ -1409,8 +1313,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="16053120" y="4808520"/>
-                <a:ext cx="1992240" cy="352080"/>
+                <a:off x="16055280" y="4808520"/>
+                <a:ext cx="1992240" cy="351720"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -1438,9 +1342,6 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>PASSAGE DE VIS</a:t>
@@ -1458,10 +1359,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="10085760" y="2331720"/>
-                <a:ext cx="7949520" cy="4686120"/>
-                <a:chOff x="10085760" y="2331720"/>
-                <a:chExt cx="7949520" cy="4686120"/>
+                <a:off x="10087200" y="2331720"/>
+                <a:ext cx="7950240" cy="4685760"/>
+                <a:chOff x="10087200" y="2331720"/>
+                <a:chExt cx="7950240" cy="4685760"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp>
@@ -1471,8 +1372,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="16043040" y="5532120"/>
-                  <a:ext cx="1992240" cy="352080"/>
+                  <a:off x="16045200" y="5532120"/>
+                  <a:ext cx="1992240" cy="351720"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -1500,9 +1401,6 @@
                   </a:pPr>
                   <a:r>
                     <a:rPr b="1" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1"/>
-                      </a:solidFill>
                       <a:latin typeface="Calibri"/>
                     </a:rPr>
                     <a:t>TADAURAGE</a:t>
@@ -1520,10 +1418,10 @@
               </xdr:nvGrpSpPr>
               <xdr:grpSpPr>
                 <a:xfrm>
-                  <a:off x="10085760" y="2331720"/>
-                  <a:ext cx="7385760" cy="4686120"/>
-                  <a:chOff x="10085760" y="2331720"/>
-                  <a:chExt cx="7385760" cy="4686120"/>
+                  <a:off x="10087200" y="2331720"/>
+                  <a:ext cx="7386480" cy="4685760"/>
+                  <a:chOff x="10087200" y="2331720"/>
+                  <a:chExt cx="7386480" cy="4685760"/>
                 </a:xfrm>
               </xdr:grpSpPr>
               <xdr:sp>
@@ -1533,8 +1431,8 @@
                 </xdr:nvSpPr>
                 <xdr:spPr>
                   <a:xfrm>
-                    <a:off x="16053120" y="3065400"/>
-                    <a:ext cx="1418400" cy="352080"/>
+                    <a:off x="16055280" y="3065400"/>
+                    <a:ext cx="1418400" cy="351720"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -1562,9 +1460,6 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr b="1" lang="fr-FR" sz="1400" spc="-1" strike="noStrike">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
                         <a:latin typeface="Calibri"/>
                       </a:rPr>
                       <a:t>VIS</a:t>
@@ -1582,10 +1477,10 @@
                 </xdr:nvGrpSpPr>
                 <xdr:grpSpPr>
                   <a:xfrm>
-                    <a:off x="10085760" y="2331720"/>
-                    <a:ext cx="5967000" cy="4686120"/>
-                    <a:chOff x="10085760" y="2331720"/>
-                    <a:chExt cx="5967000" cy="4686120"/>
+                    <a:off x="10087200" y="2331720"/>
+                    <a:ext cx="5968080" cy="4685760"/>
+                    <a:chOff x="10087200" y="2331720"/>
+                    <a:chExt cx="5968080" cy="4685760"/>
                   </a:xfrm>
                 </xdr:grpSpPr>
                 <xdr:pic>
@@ -1599,8 +1494,8 @@
                   </xdr:blipFill>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="10085760" y="2331720"/>
-                      <a:ext cx="5679720" cy="4686120"/>
+                      <a:off x="10087200" y="2331720"/>
+                      <a:ext cx="5680080" cy="4685760"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
                       <a:avLst/>
@@ -1617,8 +1512,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1">
-                      <a:off x="13285440" y="3241440"/>
-                      <a:ext cx="2767680" cy="452880"/>
+                      <a:off x="13287240" y="3241440"/>
+                      <a:ext cx="2768400" cy="453240"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1627,6 +1522,7 @@
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
+                      <a:round/>
                       <a:tailEnd len="med" type="triangle" w="med"/>
                     </a:ln>
                   </xdr:spPr>
@@ -1638,8 +1534,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1">
-                      <a:off x="13647960" y="3841560"/>
-                      <a:ext cx="2405160" cy="271800"/>
+                      <a:off x="13649760" y="3841560"/>
+                      <a:ext cx="2405880" cy="272160"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1648,6 +1544,7 @@
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
+                      <a:round/>
                       <a:tailEnd len="med" type="triangle" w="med"/>
                     </a:ln>
                   </xdr:spPr>
@@ -1659,8 +1556,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1">
-                      <a:off x="14160960" y="4308120"/>
-                      <a:ext cx="1892160" cy="43200"/>
+                      <a:off x="14162760" y="4308120"/>
+                      <a:ext cx="1892880" cy="43560"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1669,6 +1566,7 @@
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
+                      <a:round/>
                       <a:tailEnd len="med" type="triangle" w="med"/>
                     </a:ln>
                   </xdr:spPr>
@@ -1680,8 +1578,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1">
-                      <a:off x="13265280" y="4984560"/>
-                      <a:ext cx="2787840" cy="14400"/>
+                      <a:off x="13267080" y="4984560"/>
+                      <a:ext cx="2788560" cy="14760"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1690,6 +1588,7 @@
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
+                      <a:round/>
                       <a:tailEnd len="med" type="triangle" w="med"/>
                     </a:ln>
                   </xdr:spPr>
@@ -1701,8 +1600,8 @@
                   </xdr:nvCxnSpPr>
                   <xdr:spPr>
                     <a:xfrm flipH="1">
-                      <a:off x="13245120" y="5708160"/>
-                      <a:ext cx="2797920" cy="357840"/>
+                      <a:off x="13246920" y="5708160"/>
+                      <a:ext cx="2798640" cy="358200"/>
                     </a:xfrm>
                     <a:prstGeom prst="straightConnector1">
                       <a:avLst/>
@@ -1711,6 +1610,7 @@
                       <a:solidFill>
                         <a:srgbClr val="000000"/>
                       </a:solidFill>
+                      <a:round/>
                       <a:tailEnd len="med" type="triangle" w="med"/>
                     </a:ln>
                   </xdr:spPr>
@@ -1731,13 +1631,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG63"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="2.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.42"/>
@@ -1749,7 +1649,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="2.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="1" width="2.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.43"/>
@@ -2816,52 +2716,18 @@
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="40" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="43" t="str">
-        <f aca="false">"- Ajout des dimensions rondelles Belleville"</f>
-        <v>- Ajout des dimensions rondelles Belleville</v>
-      </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="O60" s="25"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="43" t="str">
-        <f aca="false">"- Ajout vérifications compatibilité dimensions rondelle Belleville"</f>
-        <v>- Ajout vérifications compatibilité dimensions rondelle Belleville</v>
-      </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="43" t="str">
-        <f aca="false">"- Ajout du calcul de couple de serrage vis pour ne pas mater la surface"</f>
-        <v>- Ajout du calcul de couple de serrage vis pour ne pas mater la surface</v>
-      </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="48" t="str">
-        <f aca="false">"- Ajout coefficient de sécurité équivalent"</f>
-        <v>- Ajout coefficient de sécurité équivalent</v>
-      </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-    </row>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <sheetProtection sheet="true" password="8577" objects="true" scenarios="true"/>
   <mergeCells count="35">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="N2:P3"/>
@@ -2981,7 +2847,7 @@
       <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.86"/>
@@ -3015,11 +2881,11 @@
       <c r="A2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
@@ -3037,9 +2903,9 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7" t="s">
         <v>77</v>
       </c>
@@ -3067,13 +2933,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="41" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3103,9 +2969,9 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="7" t="s">
         <v>91</v>
       </c>
@@ -3144,252 +3010,252 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="52" t="n">
+      <c r="B6" s="42" t="n">
         <v>3.2</v>
       </c>
-      <c r="C6" s="52" t="n">
+      <c r="C6" s="42" t="n">
         <v>3.4</v>
       </c>
-      <c r="D6" s="52" t="n">
+      <c r="D6" s="42" t="n">
         <v>3.6</v>
       </c>
-      <c r="E6" s="52" t="n">
+      <c r="E6" s="42" t="n">
         <v>3.38</v>
       </c>
-      <c r="F6" s="52" t="n">
+      <c r="F6" s="42" t="n">
         <v>5.7</v>
       </c>
-      <c r="G6" s="52" t="n">
+      <c r="G6" s="42" t="n">
         <v>3.38</v>
       </c>
-      <c r="H6" s="52" t="n">
+      <c r="H6" s="42" t="n">
         <v>6.64</v>
       </c>
-      <c r="I6" s="52" t="n">
+      <c r="I6" s="42" t="n">
         <v>3.7</v>
       </c>
-      <c r="J6" s="52" t="n">
+      <c r="J6" s="42" t="n">
         <v>6.1</v>
       </c>
-      <c r="K6" s="52" t="n">
+      <c r="K6" s="42" t="n">
         <v>3.38</v>
       </c>
-      <c r="L6" s="52" t="n">
+      <c r="L6" s="42" t="n">
         <v>8.64</v>
       </c>
-      <c r="M6" s="52" t="n">
+      <c r="M6" s="42" t="n">
         <v>3.7</v>
       </c>
-      <c r="N6" s="52" t="n">
+      <c r="N6" s="42" t="n">
         <v>8.1</v>
       </c>
-      <c r="O6" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="52" t="s">
+      <c r="O6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="42" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="42" t="n">
         <v>4.3</v>
       </c>
-      <c r="C7" s="52" t="n">
+      <c r="C7" s="42" t="n">
         <v>4.5</v>
       </c>
-      <c r="D7" s="52" t="n">
+      <c r="D7" s="42" t="n">
         <v>4.8</v>
       </c>
-      <c r="E7" s="52" t="n">
+      <c r="E7" s="42" t="n">
         <v>4.48</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="42" t="n">
         <v>7.64</v>
       </c>
-      <c r="G7" s="52" t="n">
+      <c r="G7" s="42" t="n">
         <v>4.48</v>
       </c>
-      <c r="H7" s="52" t="n">
+      <c r="H7" s="42" t="n">
         <v>8.64</v>
       </c>
-      <c r="I7" s="52" t="n">
+      <c r="I7" s="42" t="n">
         <v>4.8</v>
       </c>
-      <c r="J7" s="52" t="n">
+      <c r="J7" s="42" t="n">
         <v>8.1</v>
       </c>
-      <c r="K7" s="52" t="n">
+      <c r="K7" s="42" t="n">
         <v>4.48</v>
       </c>
-      <c r="L7" s="52" t="n">
+      <c r="L7" s="42" t="n">
         <v>11.57</v>
       </c>
-      <c r="M7" s="52" t="n">
+      <c r="M7" s="42" t="n">
         <v>4.8</v>
       </c>
-      <c r="N7" s="52" t="n">
+      <c r="N7" s="42" t="n">
         <v>10.9</v>
       </c>
-      <c r="O7" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="42" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="42" t="n">
         <v>5.3</v>
       </c>
-      <c r="C8" s="52" t="n">
+      <c r="C8" s="42" t="n">
         <v>5.5</v>
       </c>
-      <c r="D8" s="52" t="n">
+      <c r="D8" s="42" t="n">
         <v>5.8</v>
       </c>
-      <c r="E8" s="52" t="n">
+      <c r="E8" s="42" t="n">
         <v>5.48</v>
       </c>
-      <c r="F8" s="52" t="n">
+      <c r="F8" s="42" t="n">
         <v>8.64</v>
       </c>
-      <c r="G8" s="52" t="n">
+      <c r="G8" s="42" t="n">
         <v>5.48</v>
       </c>
-      <c r="H8" s="52" t="n">
+      <c r="H8" s="42" t="n">
         <v>9.64</v>
       </c>
-      <c r="I8" s="52" t="n">
+      <c r="I8" s="42" t="n">
         <v>5.8</v>
       </c>
-      <c r="J8" s="52" t="n">
+      <c r="J8" s="42" t="n">
         <v>9.1</v>
       </c>
-      <c r="K8" s="52" t="n">
+      <c r="K8" s="42" t="n">
         <v>5.48</v>
       </c>
-      <c r="L8" s="52" t="n">
+      <c r="L8" s="42" t="n">
         <v>14.57</v>
       </c>
-      <c r="M8" s="52" t="n">
+      <c r="M8" s="42" t="n">
         <v>5.8</v>
       </c>
-      <c r="N8" s="52" t="n">
+      <c r="N8" s="42" t="n">
         <v>13.9</v>
       </c>
-      <c r="O8" s="52" t="n">
+      <c r="O8" s="42" t="n">
         <v>5.8</v>
       </c>
-      <c r="P8" s="52" t="n">
+      <c r="P8" s="42" t="n">
         <v>16.9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="42" t="n">
         <v>6.4</v>
       </c>
-      <c r="C9" s="52" t="n">
+      <c r="C9" s="42" t="n">
         <v>6.6</v>
       </c>
-      <c r="D9" s="52" t="n">
+      <c r="D9" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="52" t="n">
+      <c r="E9" s="42" t="n">
         <v>6.62</v>
       </c>
-      <c r="F9" s="52" t="n">
+      <c r="F9" s="42" t="n">
         <v>10.57</v>
       </c>
-      <c r="G9" s="52" t="n">
+      <c r="G9" s="42" t="n">
         <v>6.62</v>
       </c>
-      <c r="H9" s="52" t="n">
+      <c r="H9" s="42" t="n">
         <v>11.57</v>
       </c>
-      <c r="I9" s="52" t="n">
+      <c r="I9" s="42" t="n">
         <v>6.96</v>
       </c>
-      <c r="J9" s="52" t="n">
+      <c r="J9" s="42" t="n">
         <v>10.9</v>
       </c>
-      <c r="K9" s="52" t="n">
+      <c r="K9" s="42" t="n">
         <v>6.62</v>
       </c>
-      <c r="L9" s="52" t="n">
+      <c r="L9" s="42" t="n">
         <v>17.57</v>
       </c>
-      <c r="M9" s="52" t="n">
+      <c r="M9" s="42" t="n">
         <v>6.96</v>
       </c>
-      <c r="N9" s="52" t="n">
+      <c r="N9" s="42" t="n">
         <v>16.9</v>
       </c>
-      <c r="O9" s="52" t="n">
+      <c r="O9" s="42" t="n">
         <v>6.96</v>
       </c>
-      <c r="P9" s="52" t="n">
+      <c r="P9" s="42" t="n">
         <v>20.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="52" t="n">
+      <c r="B10" s="42" t="n">
         <v>8.4</v>
       </c>
-      <c r="C10" s="52" t="n">
+      <c r="C10" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="52" t="n">
+      <c r="D10" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="52" t="n">
+      <c r="E10" s="42" t="n">
         <v>8.62</v>
       </c>
-      <c r="F10" s="52" t="n">
+      <c r="F10" s="42" t="n">
         <v>14.57</v>
       </c>
-      <c r="G10" s="52" t="n">
+      <c r="G10" s="42" t="n">
         <v>8.62</v>
       </c>
-      <c r="H10" s="52" t="n">
+      <c r="H10" s="42" t="n">
         <v>15.57</v>
       </c>
-      <c r="I10" s="52" t="n">
+      <c r="I10" s="42" t="n">
         <v>9.36</v>
       </c>
-      <c r="J10" s="52" t="n">
+      <c r="J10" s="42" t="n">
         <v>14.9</v>
       </c>
-      <c r="K10" s="52" t="n">
+      <c r="K10" s="42" t="n">
         <v>8.62</v>
       </c>
-      <c r="L10" s="52" t="n">
+      <c r="L10" s="42" t="n">
         <v>23.48</v>
       </c>
-      <c r="M10" s="52" t="n">
+      <c r="M10" s="42" t="n">
         <v>9.36</v>
       </c>
-      <c r="N10" s="52" t="n">
+      <c r="N10" s="42" t="n">
         <v>22.7</v>
       </c>
-      <c r="O10" s="52" t="n">
+      <c r="O10" s="42" t="n">
         <v>9.36</v>
       </c>
-      <c r="P10" s="52" t="n">
+      <c r="P10" s="42" t="n">
         <v>26.7</v>
       </c>
     </row>
@@ -3410,79 +3276,79 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="52" t="n">
+      <c r="B15" s="42" t="n">
         <v>2.03</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="52" t="n">
+      <c r="B16" s="42" t="n">
         <v>0.328</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="52" t="n">
+      <c r="B17" s="42" t="n">
         <v>50</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" password="8577" objects="true" scenarios="true"/>
   <mergeCells count="20">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A5"/>
@@ -3523,12 +3389,12 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="134.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="11.43"/>
   </cols>
   <sheetData>
@@ -3551,78 +3417,179 @@
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="B4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
+      <c r="B5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="B6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" password="8577" objects="true" scenarios="true"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
